--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Back\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -313,7 +313,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>收款人名称：林先生（丰富电子科技有限公司）         联系人手机号：13602685578</t>
+    <t>收款人名称：林先生（丰富电子科技有限公司）         联系人手机号：18101079914</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1133,6 +1133,202 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1201,12 +1397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1216,13 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,69 +1423,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1345,126 +1466,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1506,53 +1553,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2049,7 +2049,7 @@
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2074,76 +2074,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
@@ -2170,195 +2170,195 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="89" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="89" t="s">
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="119"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="122"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="184"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="190"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="199" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="180">
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96">
         <v>2100</v>
       </c>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="182"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="190"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="199" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="180">
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96">
         <v>1400</v>
       </c>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="182"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="98"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="190"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="199" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="180">
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96">
         <v>220</v>
       </c>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="182"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="98"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="195"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="182"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="98"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="189"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="98"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="189"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="182"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="98"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="182"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="98"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2366,22 +2366,22 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="182"/>
+    <row r="16" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="98"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2396,8 +2396,8 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2421,8 +2421,8 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="127"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2469,16 +2469,16 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
       <c r="O20" s="47"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2487,51 +2487,51 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="170" t="s">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="172"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
       <c r="O21" s="48">
         <f>SUM(L9:O16)</f>
         <v>3720</v>
       </c>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="155" t="s">
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+    </row>
+    <row r="22" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="198"/>
       <c r="O22" s="81"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2546,23 +2546,23 @@
         <v>9</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="158" t="str">
+      <c r="D23" s="199" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(-DOLLAR(O21,2),TEXT(INT(ABS(O21)+0.5%),"[dbnum2]G/通用格式元;;")&amp;TEXT(RIGHT(DOLLAR(O21,2),2),"[dbnum2]0角0分;;整"),),"零角",IF(O21^2&lt;1,,"零")),"零分","整")</f>
         <v>叁仟柒佰贰拾元整</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160">
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="115">
         <f>O21-O22</f>
         <v>3720</v>
       </c>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="164"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="50"/>
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
@@ -2575,20 +2575,20 @@
       <c r="A24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="167"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="122"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -2608,101 +2608,101 @@
       <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="245"/>
-      <c r="B26" s="141" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="143"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
     </row>
     <row r="27" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="245"/>
-      <c r="B27" s="141" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="143"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="143"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="87"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="146"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="187"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="149"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="190"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
@@ -2711,116 +2711,116 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="150" t="s">
+      <c r="E31" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="154"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="195"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="84"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="150"/>
     </row>
     <row r="33" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="85"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="151"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="85"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="176"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="151"/>
     </row>
     <row r="35" spans="1:15" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="85"/>
-    </row>
-    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="178"/>
+      <c r="O35" s="151"/>
+    </row>
+    <row r="36" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="86"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="179"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="152"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="76" t="s">
         <v>19</v>
       </c>
@@ -2828,29 +2828,29 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="82"/>
-      <c r="J37" s="125" t="s">
+      <c r="J37" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="125" t="s">
+      <c r="K37" s="134"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="127"/>
+      <c r="N37" s="126"/>
       <c r="O37" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="146"/>
       <c r="J38" s="68"/>
       <c r="K38" s="69" t="s">
         <v>23</v>
@@ -2862,60 +2862,60 @@
     </row>
     <row r="39" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="140"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="149"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="131" t="s">
+      <c r="K39" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="132"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="139"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="78"/>
       <c r="F40" s="79"/>
       <c r="G40" s="79"/>
       <c r="H40" s="31"/>
       <c r="I40" s="59"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="132"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="139"/>
     </row>
     <row r="41" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="137"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="133" t="s">
+      <c r="K41" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
-      <c r="O41" s="134"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="141"/>
     </row>
     <row r="42" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
@@ -2928,11 +2928,11 @@
       <c r="H42" s="10"/>
       <c r="I42" s="66"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="136"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="143"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -3034,6 +3034,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:K8"/>
+    <mergeCell ref="E32:I36"/>
+    <mergeCell ref="B32:D36"/>
+    <mergeCell ref="J32:L36"/>
+    <mergeCell ref="M32:N36"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="K39:O40"/>
+    <mergeCell ref="K41:O42"/>
+    <mergeCell ref="E38:I39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:O14"/>
     <mergeCell ref="B26:P26"/>
     <mergeCell ref="B27:P27"/>
     <mergeCell ref="H6:N6"/>
@@ -3050,50 +3094,6 @@
     <mergeCell ref="D12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="K39:O40"/>
-    <mergeCell ref="K41:O42"/>
-    <mergeCell ref="E38:I39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:K8"/>
-    <mergeCell ref="E32:I36"/>
-    <mergeCell ref="B32:D36"/>
-    <mergeCell ref="J32:L36"/>
-    <mergeCell ref="M32:N36"/>
-    <mergeCell ref="L7:O8"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="1.9680555555555601" right="0.70763888888888904" top="0.39305555555555599" bottom="0.59027777777777801" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -3132,76 +3132,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="207"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -3211,73 +3211,73 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="241" t="s">
+      <c r="H5" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="89" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="89" t="s">
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="202" t="s">
+      <c r="M6" s="157"/>
+      <c r="N6" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="202" t="s">
+      <c r="O6" s="219" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="220"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
       <c r="L8" s="37" t="s">
         <v>31</v>
       </c>
@@ -3286,17 +3286,17 @@
       <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="238"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
       <c r="L9" s="37" t="s">
         <v>31</v>
       </c>
@@ -3305,17 +3305,17 @@
       <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="189"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="238"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="37" t="s">
         <v>31</v>
       </c>
@@ -3324,17 +3324,17 @@
       <c r="O10" s="41"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="189"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="240"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="209"/>
       <c r="L11" s="37" t="s">
         <v>31</v>
       </c>
@@ -3343,17 +3343,17 @@
       <c r="O11" s="41"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="189"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="37" t="s">
         <v>31</v>
       </c>
@@ -3362,17 +3362,17 @@
       <c r="O12" s="41"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="189"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="37" t="s">
         <v>31</v>
       </c>
@@ -3381,17 +3381,17 @@
       <c r="O13" s="41"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="37" t="s">
         <v>31</v>
       </c>
@@ -3400,17 +3400,17 @@
       <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="37" t="s">
         <v>31</v>
       </c>
@@ -3419,17 +3419,17 @@
       <c r="O15" s="41"/>
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="37" t="s">
         <v>31</v>
       </c>
@@ -3444,17 +3444,17 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="188"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
       <c r="L17" s="37" t="s">
         <v>31</v>
       </c>
@@ -3475,8 +3475,8 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3500,8 +3500,8 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="127"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -3548,16 +3548,16 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="169" t="s">
+      <c r="G21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
       <c r="O21" s="47"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3567,50 +3567,50 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="172"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
       <c r="O22" s="48">
         <f>SUM(O8:O21)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="198"/>
       <c r="O23" s="49"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3621,26 +3621,26 @@
     </row>
     <row r="24" spans="1:24" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="160">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="115">
         <f>O22-O23</f>
         <v>0</v>
       </c>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="163" t="s">
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="164"/>
+      <c r="N24" s="119"/>
       <c r="O24" s="50" t="s">
         <v>35</v>
       </c>
@@ -3655,20 +3655,20 @@
       <c r="A25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="234" t="s">
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="235"/>
+      <c r="K25" s="214"/>
       <c r="L25" s="51"/>
       <c r="M25" s="52" t="s">
         <v>37</v>
@@ -3696,61 +3696,61 @@
       <c r="O26" s="58"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="228" t="s">
+      <c r="A27" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="143"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="229" t="s">
+      <c r="A28" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="146"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="187"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="149"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="190"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3759,11 +3759,11 @@
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="152"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="193"/>
       <c r="J30" s="60" t="s">
         <v>41</v>
       </c>
@@ -3778,92 +3778,92 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="212"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="204"/>
+      <c r="A31" s="229"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="178"/>
+      <c r="O31" s="221"/>
     </row>
     <row r="32" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="217"/>
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="226"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="205"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="222"/>
     </row>
     <row r="33" spans="1:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="217"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="225"/>
-      <c r="L33" s="226"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="205"/>
+      <c r="A33" s="234"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="242"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="222"/>
     </row>
     <row r="34" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="217"/>
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="205"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="236"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="231"/>
+      <c r="L34" s="244"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="222"/>
     </row>
     <row r="35" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="220"/>
-      <c r="B35" s="221"/>
-      <c r="C35" s="221"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="221"/>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="125" t="s">
+      <c r="A35" s="237"/>
+      <c r="B35" s="238"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="238"/>
+      <c r="G35" s="238"/>
+      <c r="H35" s="238"/>
+      <c r="I35" s="239"/>
+      <c r="J35" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="125" t="s">
+      <c r="K35" s="134"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="127"/>
+      <c r="N35" s="126"/>
       <c r="O35" s="67" t="s">
         <v>22</v>
       </c>
@@ -3890,89 +3890,89 @@
       <c r="O36" s="72"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="208"/>
-      <c r="B37" s="209"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
+      <c r="A37" s="225"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="131" t="s">
+      <c r="K37" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="132"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="139"/>
     </row>
     <row r="38" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="210"/>
-      <c r="B38" s="211"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
+      <c r="A38" s="227"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="228"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="228"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="132"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="139"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="200" t="s">
+      <c r="A39" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
       <c r="H39" s="31"/>
       <c r="I39" s="24"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="133" t="s">
+      <c r="K39" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="134"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="141"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="212"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="226"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="134"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="141"/>
     </row>
     <row r="41" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="213"/>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="231"/>
+      <c r="G41" s="231"/>
+      <c r="H41" s="231"/>
+      <c r="I41" s="231"/>
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -4080,43 +4080,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -4133,6 +4096,43 @@
     <mergeCell ref="J31:L34"/>
     <mergeCell ref="M31:N34"/>
     <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="1.5743055555555601" right="0.39305555555555599" top="0.18888888888888899" bottom="0.16875000000000001" header="0.16875000000000001" footer="0.16875000000000001"/>
